--- a/pred_ohlcv/54_21/2019-10-31 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 HYC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-1976638.938210826</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1968829.823510826</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2502298.005340792</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2627064.748040792</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2257265.671540792</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2717397.415540792</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2717377.415540792</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5820710.289091787</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4285215.459996163</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5047483.814496163</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4639569.837896164</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>4728475.436496164</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>4750217.963796164</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>4740152.832996164</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4458273.104796164</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4461617.585796163</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4356510.263196164</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4292194.724096164</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 HYC ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-2509610.723110826</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2502298.005340792</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2690108.419740792</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2627064.748040792</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2257265.671540792</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2257255.671540792</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2581762.892740792</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2766223.464440792</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2771429.554540792</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2717397.415540792</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2717377.415540792</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2717367.415540792</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2728071.495940792</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5820710.289091787</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4090457.895191787</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4796594.290896162</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5803068.358196163</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5639545.770596162</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5305264.848896163</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5687233.567096163</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>4851139.961096163</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4801940.902196163</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>4730768.237996163</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>4709301.371996163</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>4458273.104796164</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>4461617.585796163</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4356510.263196164</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>4292194.724096164</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
